--- a/BE/DreamyShop.Infrastructure/Resources/Reports/InputReport.xlsx
+++ b/BE/DreamyShop.Infrastructure/Resources/Reports/InputReport.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1941E472-933C-4D82-A11C-F26DAB294AB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="7980" xr2:uid="{96EF6C9B-554E-497B-8438-3D451C5B20D9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -84,15 +83,9 @@
     <t>Black</t>
   </si>
   <si>
-    <t>LT-A</t>
-  </si>
-  <si>
     <t>White</t>
   </si>
   <si>
-    <t>LT-B</t>
-  </si>
-  <si>
     <t>Rolex watch</t>
   </si>
   <si>
@@ -123,27 +116,45 @@
     <t>Option Value</t>
   </si>
   <si>
-    <t>Black, 15.6</t>
-  </si>
-  <si>
     <t>White, 14</t>
   </si>
   <si>
     <t>Size</t>
   </si>
   <si>
-    <t>15.6, 14</t>
+    <t>Black, 14</t>
+  </si>
+  <si>
+    <t>LT-A2</t>
+  </si>
+  <si>
+    <t>LT-A1</t>
+  </si>
+  <si>
+    <t>LT-B1</t>
+  </si>
+  <si>
+    <t>LT-B2</t>
+  </si>
+  <si>
+    <t>15, 14</t>
+  </si>
+  <si>
+    <t>Black, 15</t>
+  </si>
+  <si>
+    <t>White, 15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -155,6 +166,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -194,21 +210,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -262,7 +263,20 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -276,17 +290,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -295,45 +311,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -649,225 +686,278 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC148D8-930C-4715-9A81-E51CF2456B75}">
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="16.75" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="5">
+        <v>22</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="14">
+        <v>32</v>
+      </c>
+      <c r="N3" s="14">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>11</v>
+      <c r="J4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="5">
+        <v>21</v>
+      </c>
+      <c r="N4" s="5">
+        <v>2342</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="2">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="N5" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5" t="b">
+      <c r="G6" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="8" t="b">
+      <c r="H6" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="I6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="3">
-        <v>22</v>
-      </c>
-      <c r="N2" s="3">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="L7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="3">
-        <v>15</v>
-      </c>
-      <c r="N3" s="3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="4" t="b">
+      <c r="M7" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="13">
-        <v>1</v>
-      </c>
-      <c r="N4" s="13">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2">
+      <c r="N7" s="1">
         <v>11999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="22">
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BE/DreamyShop.Infrastructure/Resources/Reports/InputReport.xlsx
+++ b/BE/DreamyShop.Infrastructure/Resources/Reports/InputReport.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -144,6 +144,63 @@
   </si>
   <si>
     <t>White, 15</t>
+  </si>
+  <si>
+    <t>Appetizer - Mango Chevre</t>
+  </si>
+  <si>
+    <t>UKX</t>
+  </si>
+  <si>
+    <t>Ust-Kut Airport</t>
+  </si>
+  <si>
+    <t>Jayo</t>
+  </si>
+  <si>
+    <t>No Des</t>
+  </si>
+  <si>
+    <t>Violet</t>
+  </si>
+  <si>
+    <t>36987-2621</t>
+  </si>
+  <si>
+    <t>Roe - White Fish</t>
+  </si>
+  <si>
+    <t>EHT</t>
+  </si>
+  <si>
+    <t>Rentschler Heliport</t>
+  </si>
+  <si>
+    <t>Topdrive</t>
+  </si>
+  <si>
+    <t>Mauv</t>
+  </si>
+  <si>
+    <t>51346-045</t>
+  </si>
+  <si>
+    <t>Onion - Dried</t>
+  </si>
+  <si>
+    <t>LMT</t>
+  </si>
+  <si>
+    <t>Crater Lake-Klamath Regional Airport</t>
+  </si>
+  <si>
+    <t>Voomm</t>
+  </si>
+  <si>
+    <t>Turquoise</t>
+  </si>
+  <si>
+    <t>41163-049</t>
   </si>
 </sst>
 </file>
@@ -311,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -331,47 +388,53 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,17 +750,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
@@ -725,57 +797,57 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="15" t="s">
+      <c r="G2" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="11" t="s">
         <v>38</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -789,45 +861,45 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="14" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="8">
         <v>32</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="8">
         <v>4234</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="12" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="10" t="s">
         <v>39</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -841,16 +913,16 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="2" t="s">
         <v>30</v>
       </c>
@@ -865,34 +937,34 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="10" t="s">
+      <c r="G6" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="19" t="s">
         <v>28</v>
       </c>
       <c r="K6" s="6" t="s">
@@ -909,16 +981,16 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="8"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="1" t="s">
         <v>19</v>
       </c>
@@ -930,10 +1002,157 @@
       </c>
       <c r="N7" s="1">
         <v>11999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="22">
+        <v>855</v>
+      </c>
+      <c r="N8" s="22">
+        <v>878482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="22">
+        <v>449</v>
+      </c>
+      <c r="N9" s="22">
+        <v>940128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="22">
+        <v>607</v>
+      </c>
+      <c r="N10" s="22">
+        <v>730601</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="F2:F5"/>
@@ -941,21 +1160,6 @@
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BE/DreamyShop.Infrastructure/Resources/Reports/InputReport.xlsx
+++ b/BE/DreamyShop.Infrastructure/Resources/Reports/InputReport.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -146,61 +146,70 @@
     <t>White, 15</t>
   </si>
   <si>
-    <t>Appetizer - Mango Chevre</t>
-  </si>
-  <si>
-    <t>UKX</t>
-  </si>
-  <si>
-    <t>Ust-Kut Airport</t>
-  </si>
-  <si>
-    <t>Jayo</t>
-  </si>
-  <si>
-    <t>No Des</t>
-  </si>
-  <si>
-    <t>Violet</t>
-  </si>
-  <si>
-    <t>36987-2621</t>
-  </si>
-  <si>
-    <t>Roe - White Fish</t>
-  </si>
-  <si>
-    <t>EHT</t>
-  </si>
-  <si>
-    <t>Rentschler Heliport</t>
-  </si>
-  <si>
-    <t>Topdrive</t>
-  </si>
-  <si>
-    <t>Mauv</t>
-  </si>
-  <si>
-    <t>51346-045</t>
-  </si>
-  <si>
-    <t>Onion - Dried</t>
-  </si>
-  <si>
-    <t>LMT</t>
-  </si>
-  <si>
-    <t>Crater Lake-Klamath Regional Airport</t>
-  </si>
-  <si>
-    <t>Voomm</t>
-  </si>
-  <si>
-    <t>Turquoise</t>
-  </si>
-  <si>
-    <t>41163-049</t>
+    <t>Áo phông</t>
+  </si>
+  <si>
+    <t>LMH</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Áo sơ mi</t>
+  </si>
+  <si>
+    <t>BHN</t>
+  </si>
+  <si>
+    <t>Quần jeans</t>
+  </si>
+  <si>
+    <t>GHJ</t>
+  </si>
+  <si>
+    <t>Mũ cói</t>
+  </si>
+  <si>
+    <t>MKH</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Mũ lưỡi trai</t>
+  </si>
+  <si>
+    <t>DFG</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Áo chống nắng</t>
+  </si>
+  <si>
+    <t>ADF</t>
+  </si>
+  <si>
+    <t>Quần đùi</t>
+  </si>
+  <si>
+    <t>TGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black </t>
+  </si>
+  <si>
+    <t>Váy hoa</t>
+  </si>
+  <si>
+    <t>THY</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Áo</t>
   </si>
 </sst>
 </file>
@@ -373,48 +382,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -424,16 +439,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -750,399 +759,624 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="22"/>
+    <col min="3" max="3" width="20.140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="17" style="22" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="22"/>
+    <col min="8" max="8" width="14" style="22" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="22" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="22" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="22" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="22" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="10">
         <v>22</v>
       </c>
-      <c r="N2" s="5">
-        <v>1340</v>
+      <c r="N2" s="10">
+        <v>120000</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="8" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="5">
         <v>32</v>
       </c>
-      <c r="N3" s="8">
-        <v>4234</v>
+      <c r="N3" s="5">
+        <v>100000</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="18" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="10">
         <v>21</v>
       </c>
-      <c r="N4" s="5">
-        <v>2342</v>
+      <c r="N4" s="10">
+        <v>130000</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="2" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="11">
         <v>15</v>
       </c>
-      <c r="N5" s="2">
-        <v>1200</v>
+      <c r="N5" s="11">
+        <v>100000</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="13" t="s">
+      <c r="G6" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="6">
-        <v>1</v>
-      </c>
-      <c r="N6" s="6">
-        <v>10000</v>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>150000</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="1" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1">
-        <v>11999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="M7" s="21">
+        <v>1</v>
+      </c>
+      <c r="N7" s="21">
+        <v>159999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="K8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="9">
+        <v>2</v>
+      </c>
+      <c r="N8" s="9">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="B9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="22" t="s">
+      <c r="C9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="9">
+        <v>5</v>
+      </c>
+      <c r="N9" s="9">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="22" t="s">
+      <c r="B10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="22">
-        <v>855</v>
-      </c>
-      <c r="N8" s="22">
-        <v>878482</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="9">
+        <v>27</v>
+      </c>
+      <c r="K10" s="9">
+        <v>27</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="9">
+        <v>9</v>
+      </c>
+      <c r="N10" s="9">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="9">
+        <v>12</v>
+      </c>
+      <c r="N11" s="9">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="22" t="s">
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="22">
-        <v>449</v>
-      </c>
-      <c r="N9" s="22">
-        <v>940128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="M12" s="9">
+        <v>13</v>
+      </c>
+      <c r="N12" s="9">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="9">
+        <v>56</v>
+      </c>
+      <c r="N13" s="9">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="22" t="s">
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="22" t="s">
+      <c r="M14" s="9">
+        <v>54</v>
+      </c>
+      <c r="N14" s="9">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="22">
-        <v>607</v>
-      </c>
-      <c r="N10" s="22">
-        <v>730601</v>
+      <c r="J15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="9">
+        <v>23</v>
+      </c>
+      <c r="N15" s="9">
+        <v>210000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="A2:A5"/>
@@ -1153,13 +1387,11 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BE/DreamyShop.Infrastructure/Resources/Reports/InputReport.xlsx
+++ b/BE/DreamyShop.Infrastructure/Resources/Reports/InputReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Laptop Demon</t>
-  </si>
-  <si>
     <t>LTDM</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Apple</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Black</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
     <t>Single</t>
   </si>
   <si>
-    <t>Watch</t>
-  </si>
-  <si>
     <t>Sony</t>
   </si>
   <si>
@@ -210,6 +201,30 @@
   </si>
   <si>
     <t>Áo</t>
+  </si>
+  <si>
+    <t>Quần</t>
+  </si>
+  <si>
+    <t>Đồng hồ</t>
+  </si>
+  <si>
+    <t>Mũ</t>
+  </si>
+  <si>
+    <t>Váy</t>
+  </si>
+  <si>
+    <t>GUCCI</t>
+  </si>
+  <si>
+    <t>Laptop Lenovo Legion 5 15IAH7 i5 12500H (82RC003WVN) gây ấn tượng bởi lối thiết kế đậm chất thể thao, mạnh mẽ với khả năng vận hành mượt mà mọi tựa game từ nhẹ đến nặng, giúp các cao thủ chiến game đầy tự tin và tận hưởng những giây phút đỉnh cao trong chiến trường ảo</t>
+  </si>
+  <si>
+    <t>Laptop Lenovo Legion 5 15IAH7 i5</t>
+  </si>
+  <si>
+    <t>Chất liệu siêu chống thấm, kết hợp với lớp vải lưới thoáng mát Sản phẩm sử dụng các vật liệu nhám và khóa. Sơn phản quang trước và sau nhắm gây chú ý tới người đối diện khi trời vào ban đêm.</t>
   </si>
 </sst>
 </file>
@@ -258,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -303,17 +318,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -377,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -388,7 +392,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -400,50 +404,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,26 +769,26 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="22"/>
-    <col min="3" max="3" width="20.140625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="17" style="22" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="22"/>
-    <col min="8" max="8" width="14" style="22" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="22" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="22" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="22" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="22" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="22" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="24.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="13"/>
+    <col min="3" max="3" width="20.140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17" style="13" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="13"/>
+    <col min="8" max="8" width="14" style="13" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="13" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="13" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
@@ -810,10 +817,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>8</v>
@@ -829,41 +836,41 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>28</v>
+      <c r="F2" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M2" s="10">
         <v>22</v>
@@ -873,21 +880,21 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="15"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M3" s="5">
         <v>32</v>
@@ -897,25 +904,25 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>37</v>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M4" s="10">
         <v>21</v>
@@ -925,21 +932,21 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M5" s="11">
         <v>15</v>
@@ -949,41 +956,41 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="D6" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="F6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="M6" s="3">
         <v>1</v>
@@ -993,47 +1000,47 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="21" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="21">
-        <v>1</v>
-      </c>
-      <c r="N7" s="21">
+      <c r="M7" s="12">
+        <v>1</v>
+      </c>
+      <c r="N7" s="12">
         <v>159999</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="G8" s="9" t="b">
         <v>1</v>
@@ -1042,16 +1049,16 @@
         <v>1</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M8" s="9">
         <v>2</v>
@@ -1060,42 +1067,42 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="K9" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M9" s="9">
         <v>5</v>
@@ -1104,24 +1111,24 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="G10" s="9" t="b">
         <v>1</v>
@@ -1130,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J10" s="9">
         <v>27</v>
@@ -1139,7 +1146,7 @@
         <v>27</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M10" s="9">
         <v>9</v>
@@ -1148,42 +1155,42 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="J11" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M11" s="9">
         <v>12</v>
@@ -1192,42 +1199,42 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="J12" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M12" s="9">
         <v>13</v>
@@ -1236,24 +1243,24 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="G13" s="9" t="b">
         <v>1</v>
@@ -1262,16 +1269,16 @@
         <v>1</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M13" s="9">
         <v>56</v>
@@ -1280,42 +1287,42 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="L14" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M14" s="9">
         <v>54</v>
@@ -1324,24 +1331,24 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="G15" s="9" t="b">
         <v>1</v>
@@ -1350,16 +1357,16 @@
         <v>1</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M15" s="9">
         <v>23</v>
